--- a/va_facility_data_2025-02-20/Oceanside VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oceanside%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Oceanside VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oceanside%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd251a5270ebf46e8a960192de7596f10"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7cfd07bb691c4b31a7d951a57de71204"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R40709446f15d46d3865e09e7e84a0570"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R03617e87d2cc48a387b5a1112a607bcb"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R352fd7bea7194ef3aa75eb14f818a65f"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R0988d5f63ee94d1ab3fa163ca2491386"/>
   </x:sheets>
 </x:workbook>
 </file>
